--- a/2ИСИП-422_ТерВер.xlsx
+++ b/2ИСИП-422_ТерВер.xlsx
@@ -557,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -574,12 +574,12 @@
     <col min="4" max="10" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
@@ -614,7 +614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -639,8 +639,20 @@
       <c r="K3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -688,8 +700,24 @@
         <f>P4-N4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <f>IF(S$3=$N4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="9">
+        <f t="shared" ref="T4:V19" si="0">IF(T$3=$N4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -735,11 +763,27 @@
         <v>5</v>
       </c>
       <c r="Q5" s="9">
-        <f t="shared" ref="Q5:Q31" si="0">P5-N5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q5:Q31" si="1">P5-N5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" ref="S5:V31" si="2">IF(S$3=$N5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -774,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M31" si="1">SUM(D6:K6)</f>
+        <f t="shared" ref="M6:M31" si="3">SUM(D6:K6)</f>
         <v>40</v>
       </c>
       <c r="N6" s="8">
@@ -784,11 +828,27 @@
         <v>5</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -823,70 +883,102 @@
         <v>5</v>
       </c>
       <c r="M7">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="9">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="P7" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5">
-        <v>5</v>
-      </c>
-      <c r="J8" s="6">
-        <v>5</v>
-      </c>
-      <c r="K8" s="6">
-        <v>5</v>
-      </c>
-      <c r="M8">
+      <c r="N8" s="8">
+        <v>5</v>
+      </c>
+      <c r="P8" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N8" s="8">
-        <v>5</v>
-      </c>
-      <c r="P8" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -921,21 +1013,37 @@
         <v>5</v>
       </c>
       <c r="M9">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N9" s="8">
+        <v>5</v>
+      </c>
+      <c r="P9" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N9" s="8">
-        <v>5</v>
-      </c>
-      <c r="P9" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -970,21 +1078,37 @@
         <v>5</v>
       </c>
       <c r="M10">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N10" s="8">
+        <v>5</v>
+      </c>
+      <c r="P10" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N10" s="8">
-        <v>5</v>
-      </c>
-      <c r="P10" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1019,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="N11" s="8">
@@ -1029,11 +1153,27 @@
         <v>4</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1068,21 +1208,37 @@
         <v>5</v>
       </c>
       <c r="M12">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N12" s="8">
+        <v>5</v>
+      </c>
+      <c r="P12" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N12" s="8">
-        <v>5</v>
-      </c>
-      <c r="P12" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1117,21 +1273,37 @@
         <v>5</v>
       </c>
       <c r="M13">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N13" s="8">
+        <v>5</v>
+      </c>
+      <c r="P13" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N13" s="8">
-        <v>5</v>
-      </c>
-      <c r="P13" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1166,21 +1338,37 @@
         <v>5</v>
       </c>
       <c r="M14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N14" s="8">
+        <v>5</v>
+      </c>
+      <c r="P14" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N14" s="8">
-        <v>5</v>
-      </c>
-      <c r="P14" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1215,21 +1403,37 @@
         <v>5</v>
       </c>
       <c r="M15">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N15" s="8">
+        <v>5</v>
+      </c>
+      <c r="P15" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N15" s="8">
-        <v>5</v>
-      </c>
-      <c r="P15" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1264,21 +1468,37 @@
         <v>5</v>
       </c>
       <c r="M16">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N16" s="8">
+        <v>5</v>
+      </c>
+      <c r="P16" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N16" s="8">
-        <v>5</v>
-      </c>
-      <c r="P16" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1313,21 +1533,37 @@
         <v>2</v>
       </c>
       <c r="M17">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="N17" s="8">
+        <v>5</v>
+      </c>
+      <c r="P17" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="9">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="N17" s="8">
-        <v>5</v>
-      </c>
-      <c r="P17" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1362,21 +1598,37 @@
         <v>5</v>
       </c>
       <c r="M18">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N18" s="8">
+        <v>5</v>
+      </c>
+      <c r="P18" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N18" s="8">
-        <v>5</v>
-      </c>
-      <c r="P18" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1411,21 +1663,37 @@
         <v>5</v>
       </c>
       <c r="M19">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N19" s="8">
+        <v>5</v>
+      </c>
+      <c r="P19" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N19" s="8">
-        <v>5</v>
-      </c>
-      <c r="P19" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1460,21 +1728,37 @@
         <v>5</v>
       </c>
       <c r="M20">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N20" s="8">
+        <v>5</v>
+      </c>
+      <c r="P20" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N20" s="8">
-        <v>5</v>
-      </c>
-      <c r="P20" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1509,21 +1793,37 @@
         <v>5</v>
       </c>
       <c r="M21">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N21" s="8">
+        <v>5</v>
+      </c>
+      <c r="P21" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N21" s="8">
-        <v>5</v>
-      </c>
-      <c r="P21" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1558,21 +1858,37 @@
         <v>5</v>
       </c>
       <c r="M22">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N22" s="8">
+        <v>5</v>
+      </c>
+      <c r="P22" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N22" s="8">
-        <v>5</v>
-      </c>
-      <c r="P22" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1607,21 +1923,37 @@
         <v>2</v>
       </c>
       <c r="M23">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="N23" s="8">
+        <v>5</v>
+      </c>
+      <c r="P23" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="9">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="N23" s="8">
-        <v>5</v>
-      </c>
-      <c r="P23" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1656,21 +1988,37 @@
         <v>5</v>
       </c>
       <c r="M24">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="N24" s="8">
+        <v>5</v>
+      </c>
+      <c r="P24" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="9">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="N24" s="8">
-        <v>5</v>
-      </c>
-      <c r="P24" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1705,21 +2053,37 @@
         <v>5</v>
       </c>
       <c r="M25">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N25" s="8">
+        <v>5</v>
+      </c>
+      <c r="P25" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N25" s="8">
-        <v>5</v>
-      </c>
-      <c r="P25" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1754,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="N26" s="8">
@@ -1764,11 +2128,27 @@
         <v>3</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1803,21 +2183,37 @@
         <v>5</v>
       </c>
       <c r="M27">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N27" s="8">
+        <v>5</v>
+      </c>
+      <c r="P27" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N27" s="8">
-        <v>5</v>
-      </c>
-      <c r="P27" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1852,7 +2248,7 @@
         <v>5</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="N28">
@@ -1865,11 +2261,27 @@
         <v>4</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1904,21 +2316,37 @@
         <v>5</v>
       </c>
       <c r="M29">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N29" s="8">
+        <v>5</v>
+      </c>
+      <c r="P29" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N29" s="8">
-        <v>5</v>
-      </c>
-      <c r="P29" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1953,21 +2381,37 @@
         <v>5</v>
       </c>
       <c r="M30">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N30" s="8">
+        <v>5</v>
+      </c>
+      <c r="P30" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N30" s="8">
-        <v>5</v>
-      </c>
-      <c r="P30" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2002,25 +2446,53 @@
         <v>5</v>
       </c>
       <c r="M31">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N31" s="8">
+        <v>5</v>
+      </c>
+      <c r="P31" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N31" s="8">
-        <v>5</v>
-      </c>
-      <c r="P31" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="D4:K31">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2032,7 +2504,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L31">
+  <conditionalFormatting sqref="M34:M42 N4:N33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2044,7 +2516,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M34:M42 N4:N33">
+  <conditionalFormatting sqref="M4:M31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2056,7 +2528,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M31">
+  <conditionalFormatting sqref="S4:V31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/2ИСИП-422_ТерВер.xlsx
+++ b/2ИСИП-422_ТерВер.xlsx
@@ -557,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
+      <selection pane="bottomRight" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2477,38 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="19:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <f>SUM(S4:S31)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <f t="shared" ref="T35:V35" si="4">SUM(T4:T31)</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="9">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="V35" s="9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="D4:K31">
